--- a/Tables/Tables_SM_SofToss.xlsx
+++ b/Tables/Tables_SM_SofToss.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <fileSharing readOnlyRecommended="1" userName="Diego Bianchi" algorithmName="SHA-512" hashValue="EKpxsNTaTJXhCxHLz1XO7ypZpjBFsFRr3AvStWjpPNERRuwmL+iQjmwRbb7lsxt3o2Y8AesBqCdBZUwgrXYDoA==" saltValue="pOOiwOptxHPOk3a9xY5GnA==" spinCount="100000"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.bianchi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnisssup-my.sharepoint.com/personal/diego_bianchi_santannapisa_it/Documents/RAM - Initial Submission/-- REVIEWS PT 2/Git_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7F361B-8226-446B-861B-8FAFE1AA05F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{9D52C5C5-1B84-492E-ADB4-9C9635F75A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2999B4C7-4242-46FE-A1D2-4D2465553169}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C01BEBE4-854A-4793-81A9-E246D4715F9B}"/>
+    <workbookView xWindow="4530" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="8" xr2:uid="{C01BEBE4-854A-4793-81A9-E246D4715F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="SI" sheetId="1" r:id="rId1"/>
-    <sheet name="SII" sheetId="2" r:id="rId2"/>
-    <sheet name="SIII" sheetId="3" r:id="rId3"/>
+    <sheet name="SIII" sheetId="3" r:id="rId2"/>
+    <sheet name="SII" sheetId="2" r:id="rId3"/>
     <sheet name="SIV" sheetId="4" r:id="rId4"/>
     <sheet name="SV" sheetId="6" r:id="rId5"/>
     <sheet name="SVI" sheetId="7" r:id="rId6"/>
     <sheet name="SVII" sheetId="8" r:id="rId7"/>
     <sheet name="SVIII" sheetId="9" r:id="rId8"/>
+    <sheet name="SIX" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="75">
   <si>
     <t>Caption:</t>
   </si>
@@ -457,12 +458,53 @@
   <si>
     <t xml:space="preserve">Landing position error in the direct model </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t xml:space="preserve">Comparison of RL agents in object-specific direct models. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Analysis of the reinforcement learning (RL) agents within the context of object-specific direct models. The performance of these agents is evaluated on the minimum, average, and maximum distances (in millimeters) of the landing positions achieved by the corresponding actuation patterns. The RL agents' policies are trained and tested using the environment built upon the object-specific direct model.</t>
+    </r>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +557,13 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -811,12 +860,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,6 +952,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -915,6 +981,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,10 +1002,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,27 +1020,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,6 +1033,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1286,29 +1371,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57C3F13-8BBB-41F9-80B0-5678F33FD528}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1316,19 +1401,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1336,376 +1421,376 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31">
         <v>16</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29" t="s">
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31">
         <v>4000</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31">
         <v>0.95</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31">
         <v>64</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31">
         <v>64</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1">
+      <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29">
-        <v>32</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31">
+        <v>32</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31">
         <v>500</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29">
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31">
         <v>0.9</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31">
         <v>128</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31">
         <v>128</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1">
+      <c r="A22" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="53">
     <mergeCell ref="A7:C7"/>
@@ -1767,6 +1852,678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729567BF-9BFA-47A5-93A6-1E1A7ED73A39}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15">
+      <c r="A18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="43">
+        <v>20</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46">
+        <v>19</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46">
+        <v>10</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46">
+        <v>9</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="36">
+        <v>0</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38">
+        <v>2</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38">
+        <v>12</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="36">
+        <v>4</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38">
+        <v>4</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38">
+        <v>4</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38">
+        <v>7</v>
+      </c>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="39">
+        <v>6</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42">
+        <v>3</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42">
+        <v>14</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42">
+        <v>2</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B133AEE-E6EB-4EF6-A838-543DBDB3F8E7}">
   <dimension ref="A1:R22"/>
   <sheetViews>
@@ -1774,25 +2531,25 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1800,19 +2557,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1820,82 +2577,82 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15" thickTop="1">
+      <c r="A4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1936,7 +2693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +2734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -2018,7 +2775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +2857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -2141,7 +2898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -2182,7 +2939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -2223,7 +2980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -2264,7 +3021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2305,107 +3062,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="34">
         <v>12</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="38">
         <v>17</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>13</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="32">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="34">
         <v>12</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="34">
         <v>3</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="38">
         <v>4</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>5</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="32">
+      <c r="I19" s="34"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="34">
         <v>8</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="34">
         <v>8</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="38">
         <v>4</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>3</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="32">
+      <c r="I20" s="34"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="34">
         <v>7</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="39">
         <v>7</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42">
         <v>5</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42">
         <v>9</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35">
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40">
         <v>3</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A1:A2"/>
@@ -2438,678 +3195,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729567BF-9BFA-47A5-93A6-1E1A7ED73A39}">
-  <dimension ref="A1:R22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="44">
-        <v>20</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47">
-        <v>19</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47">
-        <v>10</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47">
-        <v>9</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="43">
-        <v>0</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38">
-        <v>4</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38">
-        <v>2</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38">
-        <v>12</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="43">
-        <v>4</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38">
-        <v>4</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38">
-        <v>4</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38">
-        <v>7</v>
-      </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="34">
-        <v>6</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37">
-        <v>3</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37">
-        <v>14</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37">
-        <v>2</v>
-      </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:L2"/>
-    <mergeCell ref="A4:M5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE8EA9-ED15-47D5-A416-0CB6E317F757}">
   <dimension ref="A1:R22"/>
@@ -3118,25 +3203,25 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3144,19 +3229,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="25.5" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -3164,82 +3249,82 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -3280,7 +3365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -3321,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -3362,7 +3447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3403,7 +3488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -3485,7 +3570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -3526,7 +3611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -3567,7 +3652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -3608,7 +3693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -3649,107 +3734,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="43">
         <v>20</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46">
         <v>22</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47">
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46">
         <v>24</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47">
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46">
         <v>10</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="36">
         <v>0</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="38">
         <v>1</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>0</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="38">
         <v>15</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="36">
         <v>8</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="38">
         <v>7</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>2</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="38">
         <v>5</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42">
         <v>0</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42">
         <v>4</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37">
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42">
         <v>0</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A1:A2"/>
@@ -3790,25 +3875,25 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="33" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -3816,19 +3901,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -3836,38 +3921,38 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3881,7 +3966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -3898,7 +3983,7 @@
         <v>87.944038299999988</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +4000,7 @@
         <v>38.019633273333334</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -3932,7 +4017,7 @@
         <v>61.52165638333333</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3949,7 +4034,7 @@
         <v>63.355995486666664</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -3966,7 +4051,7 @@
         <v>71.149583826666671</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -3983,7 +4068,7 @@
         <v>144.11740760000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -4000,7 +4085,7 @@
         <v>46.082692103333329</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -4017,7 +4102,7 @@
         <v>52.270776463333334</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -4034,7 +4119,7 @@
         <v>53.745694406666665</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -4051,7 +4136,7 @@
         <v>41.605183623333339</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A5:E5"/>
@@ -4073,25 +4158,25 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="33" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -4099,19 +4184,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4119,38 +4204,38 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -4164,7 +4249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -4181,7 +4266,7 @@
         <v>31.344296529999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -4198,7 +4283,7 @@
         <v>24.189497683333332</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -4215,7 +4300,7 @@
         <v>67.748119623333324</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4232,7 +4317,7 @@
         <v>72.334443706666676</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -4249,7 +4334,7 @@
         <v>58.450079953333336</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -4266,7 +4351,7 @@
         <v>112.45308978666667</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -4283,7 +4368,7 @@
         <v>70.702227273333335</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -4300,7 +4385,7 @@
         <v>94.806415650000005</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -4317,7 +4402,7 @@
         <v>95.767101213333333</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -4334,7 +4419,7 @@
         <v>79.252556333333345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -4356,25 +4441,25 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18" ht="33" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -4382,19 +4467,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4402,38 +4487,38 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickTop="1">
+      <c r="A6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -4447,7 +4532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -4464,7 +4549,7 @@
         <v>39.922355836666668</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -4481,7 +4566,7 @@
         <v>32.758953433333332</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -4498,7 +4583,7 @@
         <v>95.66235021333334</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4515,7 +4600,7 @@
         <v>58.404584403333331</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -4532,7 +4617,7 @@
         <v>43.78548859666666</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -4549,7 +4634,7 @@
         <v>147.0854367</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -4566,7 +4651,7 @@
         <v>74.091591906666665</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -4583,7 +4668,7 @@
         <v>52.459058339999991</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -4600,7 +4685,7 @@
         <v>93.063383593333342</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -4617,7 +4702,7 @@
         <v>32.758056199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -4639,30 +4724,30 @@
       <selection activeCell="E14" activeCellId="1" sqref="A4:C4 E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -4670,19 +4755,19 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -4690,15 +4775,15 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1"/>
+    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
@@ -4709,7 +4794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
@@ -4720,7 +4805,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="24" t="s">
         <v>33</v>
       </c>
@@ -4731,7 +4816,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="24" t="s">
         <v>36</v>
       </c>
@@ -4742,7 +4827,7 @@
         <v>19.07</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
@@ -4753,7 +4838,7 @@
         <v>39.76</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="24" t="s">
         <v>35</v>
       </c>
@@ -4764,7 +4849,7 @@
         <v>37.33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="24" t="s">
         <v>39</v>
       </c>
@@ -4775,7 +4860,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="24" t="s">
         <v>40</v>
       </c>
@@ -4786,7 +4871,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="24" t="s">
         <v>41</v>
       </c>
@@ -4797,7 +4882,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
@@ -4808,7 +4893,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1">
       <c r="A15" s="25" t="s">
         <v>43</v>
       </c>
@@ -4819,7 +4904,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" thickTop="1">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
     </row>
@@ -4831,4 +4916,221 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDF252B-6424-4E23-B01C-DE49A07E08A3}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5" spans="1:18" ht="17.25" thickTop="1">
+      <c r="A5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="17.25" thickBot="1">
+      <c r="A6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" thickTop="1">
+      <c r="A7" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15.96</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14.45</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19.07</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5">
+      <c r="A8" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24.38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23.53</v>
+      </c>
+      <c r="E8" s="8">
+        <v>25.21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30.55</v>
+      </c>
+      <c r="G8" s="1">
+        <v>21.17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>22.61</v>
+      </c>
+      <c r="I8" s="1">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17.25" thickBot="1">
+      <c r="A9" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="26">
+        <v>48.18</v>
+      </c>
+      <c r="C9" s="26">
+        <v>43.36</v>
+      </c>
+      <c r="D9" s="26">
+        <v>48.12</v>
+      </c>
+      <c r="E9" s="27">
+        <v>42.84</v>
+      </c>
+      <c r="F9" s="26">
+        <v>49.5</v>
+      </c>
+      <c r="G9" s="26">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="H9" s="26">
+        <v>40.64</v>
+      </c>
+      <c r="I9" s="26">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>